--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 4 (36, 30, 39, 35, 43)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(36, 30, 39, 35, 43)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 4 (36, 30, 39, 35, 43)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(36, 30, 39, 35, 43)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8335727462679279</v>
+        <v>0.8351364247873774</v>
       </c>
       <c r="E2">
-        <v>0.8335727462679279</v>
+        <v>0.8351364247873774</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1378091825486619</v>
+        <v>0.1401036061692985</v>
       </c>
       <c r="E3">
-        <v>0.1378091825486619</v>
+        <v>0.1401036061692985</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.003350493206179238</v>
+        <v>0.003345906839976539</v>
       </c>
       <c r="E4">
-        <v>0.003350493206179238</v>
+        <v>0.003345906839976539</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0001905360310810226</v>
+        <v>0.0001892275452282135</v>
       </c>
       <c r="E5">
-        <v>0.0001905360310810226</v>
+        <v>0.0001892275452282135</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9468374779797818</v>
+        <v>0.9463777878027243</v>
       </c>
       <c r="E6">
-        <v>0.9468374779797818</v>
+        <v>0.9463777878027243</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9961653057883176</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.003834694211682366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9956414197836806</v>
+        <v>0.9807905980326073</v>
       </c>
       <c r="E8">
-        <v>0.004358580216319408</v>
+        <v>0.01920940196739274</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9962779422785066</v>
+        <v>0.01721045663602873</v>
       </c>
       <c r="E9">
-        <v>0.003722057721493366</v>
+        <v>0.9827895433639713</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9963744178402998</v>
+        <v>4.746033878922028E-06</v>
       </c>
       <c r="E10">
-        <v>0.003625582159700214</v>
+        <v>0.9999952539661211</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9951278628334285</v>
+        <v>0.9999982070249882</v>
       </c>
       <c r="E11">
-        <v>0.004872137166571533</v>
+        <v>1.792975011793985E-06</v>
       </c>
       <c r="F11">
-        <v>0.4899879992008209</v>
+        <v>2.122275114059448</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8986410200199965</v>
+        <v>0.897762447343373</v>
       </c>
       <c r="E12">
-        <v>0.8986410200199965</v>
+        <v>0.897762447343373</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.02253470191213462</v>
+        <v>0.02225345792213777</v>
       </c>
       <c r="E13">
-        <v>0.02253470191213462</v>
+        <v>0.02225345792213777</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.001190953565947548</v>
+        <v>0.001192291256906389</v>
       </c>
       <c r="E14">
-        <v>0.001190953565947548</v>
+        <v>0.001192291256906389</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>2.603684584057352E-05</v>
+        <v>2.617968318104033E-05</v>
       </c>
       <c r="E15">
-        <v>2.603684584057352E-05</v>
+        <v>2.617968318104033E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9931464174092683</v>
+        <v>0.993240162009284</v>
       </c>
       <c r="E16">
-        <v>0.9931464174092683</v>
+        <v>0.993240162009284</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9999153275508996</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>8.467244910037586E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.999886069521157</v>
+        <v>0.9999714064484416</v>
       </c>
       <c r="E18">
-        <v>0.0001139304788430051</v>
+        <v>2.859355155837573E-05</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9999169199633607</v>
+        <v>0.00116470017827254</v>
       </c>
       <c r="E19">
-        <v>8.308003663926034E-05</v>
+        <v>0.9988352998217275</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9999212677968469</v>
+        <v>1.240139615713181E-10</v>
       </c>
       <c r="E20">
-        <v>7.873220315313123E-05</v>
+        <v>0.9999999998759861</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9998612523682149</v>
+        <v>0.9999999991889257</v>
       </c>
       <c r="E21">
-        <v>0.0001387476317851188</v>
+        <v>8.110743188183278E-10</v>
       </c>
       <c r="F21">
-        <v>0.7296580076217651</v>
+        <v>3.686688661575317</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
